--- a/bioSample/bioSample_J.PLAGGENBERG_10.16.19.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_10.16.19.xlsx
@@ -1,104 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="20">
   <si>
-    <t>harvestDate</t>
+    <t xml:space="preserve">harvestDate</t>
   </si>
   <si>
-    <t>harvester</t>
+    <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t>biosampleNumber</t>
+    <t xml:space="preserve">biosampleNumber</t>
   </si>
   <si>
-    <t>experimentDesign</t>
+    <t xml:space="preserve">experimentDesign</t>
   </si>
   <si>
-    <t>experimentObservations</t>
+    <t xml:space="preserve">experimentObservations</t>
   </si>
   <si>
-    <t>strain</t>
+    <t xml:space="preserve">strain</t>
   </si>
   <si>
-    <t>genotype</t>
+    <t xml:space="preserve">genotype</t>
   </si>
   <si>
-    <t>floodmedia</t>
+    <t xml:space="preserve">floodmedia</t>
   </si>
   <si>
-    <t>inductionDelay</t>
+    <t xml:space="preserve">inductionDelay</t>
   </si>
   <si>
-    <t>treatment</t>
+    <t xml:space="preserve">treatment</t>
   </si>
   <si>
-    <t>timePoint</t>
+    <t xml:space="preserve">timePoint</t>
   </si>
   <si>
-    <t>replicate</t>
+    <t xml:space="preserve">replicate</t>
   </si>
   <si>
-    <t>10.16.19</t>
+    <t xml:space="preserve">10.16.19</t>
   </si>
   <si>
-    <t>J.PLAGGENBERG</t>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t>ZEV_induction</t>
+    <t xml:space="preserve">ZEV_induction</t>
   </si>
   <si>
-    <t>GCN4</t>
+    <t xml:space="preserve">GCN4</t>
   </si>
   <si>
-    <t>SCGal</t>
+    <t xml:space="preserve">SCGal</t>
   </si>
   <si>
-    <t>EtoH</t>
+    <t xml:space="preserve">EtOH</t>
   </si>
   <si>
-    <t>TYE7</t>
+    <t xml:space="preserve">TYE7</t>
   </si>
   <si>
-    <t>Estradiol</t>
+    <t xml:space="preserve">Estradiol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,269 +151,109 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
-    <border>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J39" activeCellId="0" sqref="J39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,15 +305,15 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3">
-        <v>41.0</v>
+      <c r="C2" s="3" t="n">
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
@@ -441,17 +326,17 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7">
-        <v>-1.0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>3.0</v>
+      <c r="K2" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -468,15 +353,15 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
-        <v>42.0</v>
+      <c r="C3" s="3" t="n">
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -489,17 +374,17 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="7">
-        <v>-1.0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>3.0</v>
+      <c r="K3" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -516,15 +401,15 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3">
-        <v>43.0</v>
+      <c r="C4" s="3" t="n">
+        <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -537,17 +422,17 @@
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="6">
-        <v>30.0</v>
+      <c r="I4" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="7">
-        <v>-1.0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>3.0</v>
+      <c r="K4" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -564,15 +449,15 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
-        <v>44.0</v>
+      <c r="C5" s="3" t="n">
+        <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -585,17 +470,17 @@
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6">
-        <v>30.0</v>
+      <c r="I5" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="7">
-        <v>-1.0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>3.0</v>
+      <c r="K5" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -612,15 +497,15 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3">
-        <v>45.0</v>
+      <c r="C6" s="3" t="n">
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
@@ -633,17 +518,17 @@
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>3.0</v>
+      <c r="K6" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -660,15 +545,15 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
-        <v>46.0</v>
+      <c r="C7" s="3" t="n">
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
@@ -681,17 +566,17 @@
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>3.0</v>
+      <c r="K7" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -708,15 +593,15 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
-        <v>47.0</v>
+      <c r="C8" s="3" t="n">
+        <v>47</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
@@ -729,17 +614,17 @@
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="6">
-        <v>30.0</v>
+      <c r="I8" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>3.0</v>
+      <c r="K8" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -756,15 +641,15 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
-        <v>48.0</v>
+      <c r="C9" s="3" t="n">
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
@@ -777,17 +662,17 @@
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="6">
-        <v>30.0</v>
+      <c r="I9" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>3.0</v>
+      <c r="K9" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -804,15 +689,15 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
-        <v>49.0</v>
+      <c r="C10" s="3" t="n">
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
@@ -825,17 +710,17 @@
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>3.0</v>
+      <c r="K10" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -852,15 +737,15 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3">
-        <v>50.0</v>
+      <c r="C11" s="3" t="n">
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
@@ -873,17 +758,17 @@
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>3.0</v>
+      <c r="K11" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -900,15 +785,15 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
-        <v>51.0</v>
+      <c r="C12" s="3" t="n">
+        <v>51</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -921,17 +806,17 @@
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="6">
-        <v>30.0</v>
+      <c r="I12" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>3.0</v>
+      <c r="K12" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -948,15 +833,15 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
-        <v>52.0</v>
+      <c r="C13" s="3" t="n">
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>14</v>
@@ -969,17 +854,17 @@
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="6">
-        <v>30.0</v>
+      <c r="I13" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>3.0</v>
+      <c r="K13" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -996,15 +881,15 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
-        <v>53.0</v>
+      <c r="C14" s="3" t="n">
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>14</v>
@@ -1017,17 +902,17 @@
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>3.0</v>
+      <c r="K14" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1044,15 +929,15 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
-        <v>54.0</v>
+      <c r="C15" s="3" t="n">
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>14</v>
@@ -1065,17 +950,17 @@
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>3.0</v>
+      <c r="K15" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1092,15 +977,15 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3">
-        <v>55.0</v>
+      <c r="C16" s="3" t="n">
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>14</v>
@@ -1113,17 +998,17 @@
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="6">
-        <v>30.0</v>
+      <c r="I16" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>3.0</v>
+      <c r="K16" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L16" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1140,15 +1025,15 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
-        <v>56.0</v>
+      <c r="C17" s="3" t="n">
+        <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
@@ -1161,17 +1046,17 @@
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="6">
-        <v>30.0</v>
+      <c r="I17" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>3.0</v>
+      <c r="K17" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1188,15 +1073,15 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3">
-        <v>57.0</v>
+      <c r="C18" s="3" t="n">
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>14</v>
@@ -1209,17 +1094,17 @@
       <c r="H18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="I18" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>3.0</v>
+      <c r="K18" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1236,15 +1121,15 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3">
-        <v>58.0</v>
+      <c r="C19" s="3" t="n">
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>14</v>
@@ -1257,17 +1142,17 @@
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="I19" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>3.0</v>
+      <c r="K19" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1284,15 +1169,15 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3">
-        <v>59.0</v>
+      <c r="C20" s="3" t="n">
+        <v>59</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
@@ -1305,17 +1190,17 @@
       <c r="H20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="6">
-        <v>30.0</v>
+      <c r="I20" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>3.0</v>
+      <c r="K20" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1332,15 +1217,15 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3">
-        <v>60.0</v>
+      <c r="C21" s="3" t="n">
+        <v>60</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>14</v>
@@ -1353,17 +1238,17 @@
       <c r="H21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="6">
-        <v>30.0</v>
+      <c r="I21" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>3.0</v>
+      <c r="K21" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1380,15 +1265,15 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="9" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3">
-        <v>61.0</v>
+      <c r="C22" s="3" t="n">
+        <v>61</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>14</v>
@@ -1399,28 +1284,28 @@
       <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="I22" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="7">
-        <v>-1.0</v>
-      </c>
-      <c r="L22" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="K22" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="3">
-        <v>62.0</v>
+      <c r="C23" s="3" t="n">
+        <v>62</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>14</v>
@@ -1431,28 +1316,28 @@
       <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="I23" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="7">
-        <v>-1.0</v>
-      </c>
-      <c r="L23" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="K23" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="3">
-        <v>63.0</v>
+      <c r="C24" s="3" t="n">
+        <v>63</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>14</v>
@@ -1463,28 +1348,28 @@
       <c r="H24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="6">
-        <v>30.0</v>
+      <c r="I24" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="7">
-        <v>-1.0</v>
-      </c>
-      <c r="L24" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="K24" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="3">
-        <v>64.0</v>
+      <c r="C25" s="3" t="n">
+        <v>64</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>14</v>
@@ -1495,28 +1380,28 @@
       <c r="H25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="6">
-        <v>30.0</v>
+      <c r="I25" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="7">
-        <v>-1.0</v>
-      </c>
-      <c r="L25" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="K25" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3">
-        <v>65.0</v>
+      <c r="C26" s="3" t="n">
+        <v>65</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>14</v>
@@ -1527,28 +1412,28 @@
       <c r="H26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="I26" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="L26" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="K26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="3">
-        <v>66.0</v>
+      <c r="C27" s="3" t="n">
+        <v>66</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>14</v>
@@ -1559,28 +1444,28 @@
       <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="I27" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="L27" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="s">
+      <c r="K27" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="3">
-        <v>67.0</v>
+      <c r="C28" s="3" t="n">
+        <v>67</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>14</v>
@@ -1591,28 +1476,28 @@
       <c r="H28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="6">
-        <v>30.0</v>
+      <c r="I28" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="L28" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="K28" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3">
-        <v>68.0</v>
+      <c r="C29" s="3" t="n">
+        <v>68</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>14</v>
@@ -1623,28 +1508,28 @@
       <c r="H29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="6">
-        <v>30.0</v>
+      <c r="I29" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="L29" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="K29" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3">
-        <v>69.0</v>
+      <c r="C30" s="3" t="n">
+        <v>69</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>14</v>
@@ -1655,28 +1540,28 @@
       <c r="H30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="I30" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="L30" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="s">
+      <c r="K30" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="3">
-        <v>70.0</v>
+      <c r="C31" s="3" t="n">
+        <v>70</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>14</v>
@@ -1687,28 +1572,28 @@
       <c r="H31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="I31" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="L31" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="K31" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="3">
-        <v>71.0</v>
+      <c r="C32" s="3" t="n">
+        <v>71</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>14</v>
@@ -1719,28 +1604,28 @@
       <c r="H32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="6">
-        <v>30.0</v>
+      <c r="I32" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="L32" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="s">
+      <c r="K32" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="3">
-        <v>72.0</v>
+      <c r="C33" s="3" t="n">
+        <v>72</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>14</v>
@@ -1751,28 +1636,28 @@
       <c r="H33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="6">
-        <v>30.0</v>
+      <c r="I33" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="L33" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="K33" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="3">
-        <v>73.0</v>
+      <c r="C34" s="3" t="n">
+        <v>73</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>14</v>
@@ -1783,28 +1668,28 @@
       <c r="H34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="I34" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="L34" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="s">
+      <c r="K34" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="3">
-        <v>74.0</v>
+      <c r="C35" s="3" t="n">
+        <v>74</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>14</v>
@@ -1815,28 +1700,28 @@
       <c r="H35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="I35" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="L35" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="9" t="s">
+      <c r="K35" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="3">
-        <v>75.0</v>
+      <c r="C36" s="3" t="n">
+        <v>75</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>14</v>
@@ -1847,28 +1732,28 @@
       <c r="H36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="6">
-        <v>30.0</v>
+      <c r="I36" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="L36" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="9" t="s">
+      <c r="K36" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="3">
-        <v>76.0</v>
+      <c r="C37" s="3" t="n">
+        <v>76</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>14</v>
@@ -1879,28 +1764,28 @@
       <c r="H37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="6">
-        <v>30.0</v>
+      <c r="I37" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="L37" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="s">
+      <c r="K37" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="3">
-        <v>77.0</v>
+      <c r="C38" s="3" t="n">
+        <v>77</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>14</v>
@@ -1911,28 +1796,28 @@
       <c r="H38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J38" s="1" t="s">
+      <c r="I38" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="L38" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="s">
+      <c r="K38" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="3">
-        <v>78.0</v>
+      <c r="C39" s="3" t="n">
+        <v>78</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>14</v>
@@ -1943,28 +1828,28 @@
       <c r="H39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="I39" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="L39" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="K39" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="3">
-        <v>79.0</v>
+      <c r="C40" s="3" t="n">
+        <v>79</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>14</v>
@@ -1975,28 +1860,28 @@
       <c r="H40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="6">
-        <v>30.0</v>
+      <c r="I40" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K40" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="L40" s="10">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="s">
+      <c r="K40" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="3">
-        <v>80.0</v>
+      <c r="C41" s="3" t="n">
+        <v>80</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>14</v>
@@ -2007,20 +1892,26 @@
       <c r="H41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="6">
-        <v>30.0</v>
+      <c r="I41" s="6" t="n">
+        <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="L41" s="10">
-        <v>4.0</v>
+      <c r="K41" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/bioSample/bioSample_J.PLAGGENBERG_10.16.19.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_10.16.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>
@@ -120,6 +120,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -138,12 +144,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,11 +197,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,7 +213,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -218,10 +222,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,7 +245,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J39" activeCellId="0" sqref="J39"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -253,14 +253,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -306,30 +306,30 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="8" t="n">
@@ -354,30 +354,30 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="8" t="n">
@@ -402,27 +402,27 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -450,27 +450,27 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -498,33 +498,33 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="6" t="n">
+      <c r="K6" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L6" s="8" t="n">
@@ -546,33 +546,33 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>46</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="K7" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L7" s="8" t="n">
@@ -594,33 +594,33 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L8" s="8" t="n">
@@ -642,33 +642,33 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L9" s="8" t="n">
@@ -690,33 +690,33 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="I10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="6" t="n">
+      <c r="K10" s="7" t="n">
         <v>15</v>
       </c>
       <c r="L10" s="8" t="n">
@@ -738,30 +738,30 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="8" t="n">
@@ -786,27 +786,27 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -834,33 +834,33 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="6" t="n">
+      <c r="K13" s="7" t="n">
         <v>15</v>
       </c>
       <c r="L13" s="8" t="n">
@@ -882,33 +882,33 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="I14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K14" s="7" t="n">
         <v>20</v>
       </c>
       <c r="L14" s="8" t="n">
@@ -930,33 +930,33 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="I15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="7" t="n">
         <v>20</v>
       </c>
       <c r="L15" s="8" t="n">
@@ -978,33 +978,33 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="7" t="n">
         <v>20</v>
       </c>
       <c r="L16" s="8" t="n">
@@ -1026,33 +1026,33 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="7" t="n">
         <v>20</v>
       </c>
       <c r="L17" s="8" t="n">
@@ -1074,30 +1074,30 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="I18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K18" s="8" t="n">
@@ -1122,30 +1122,30 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="I19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="8" t="n">
@@ -1170,27 +1170,27 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1218,27 +1218,27 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="6" t="n">
+      <c r="I21" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1272,22 +1272,22 @@
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="D22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="I22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K22" s="8" t="n">
@@ -1304,22 +1304,22 @@
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="D23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="I23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="8" t="n">
@@ -1336,19 +1336,19 @@
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="D24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1368,19 +1368,19 @@
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="D25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1400,25 +1400,25 @@
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="D26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="I26" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="6" t="n">
+      <c r="K26" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L26" s="1" t="n">
@@ -1432,25 +1432,25 @@
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="D27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="I27" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="6" t="n">
+      <c r="K27" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L27" s="1" t="n">
@@ -1464,25 +1464,25 @@
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="D28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="6" t="n">
+      <c r="K28" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L28" s="1" t="n">
@@ -1496,25 +1496,25 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="D29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="6" t="n">
+      <c r="K29" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L29" s="1" t="n">
@@ -1528,25 +1528,25 @@
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="I30" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="6" t="n">
+      <c r="K30" s="7" t="n">
         <v>15</v>
       </c>
       <c r="L30" s="1" t="n">
@@ -1560,22 +1560,22 @@
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="D31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="I31" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K31" s="8" t="n">
@@ -1592,19 +1592,19 @@
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="6" t="n">
+      <c r="I32" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -1624,25 +1624,25 @@
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="6" t="n">
+      <c r="I33" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="6" t="n">
+      <c r="K33" s="7" t="n">
         <v>15</v>
       </c>
       <c r="L33" s="1" t="n">
@@ -1656,25 +1656,25 @@
       <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="I34" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="6" t="n">
+      <c r="K34" s="7" t="n">
         <v>20</v>
       </c>
       <c r="L34" s="1" t="n">
@@ -1688,25 +1688,25 @@
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="D35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="I35" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="6" t="n">
+      <c r="K35" s="7" t="n">
         <v>20</v>
       </c>
       <c r="L35" s="1" t="n">
@@ -1720,25 +1720,25 @@
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="D36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="6" t="n">
+      <c r="I36" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="6" t="n">
+      <c r="K36" s="7" t="n">
         <v>20</v>
       </c>
       <c r="L36" s="1" t="n">
@@ -1752,25 +1752,25 @@
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="D37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="6" t="n">
+      <c r="I37" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="6" t="n">
+      <c r="K37" s="7" t="n">
         <v>20</v>
       </c>
       <c r="L37" s="1" t="n">
@@ -1784,22 +1784,22 @@
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="D38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="I38" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K38" s="8" t="n">
@@ -1816,22 +1816,22 @@
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="D39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J39" s="7" t="s">
+      <c r="I39" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="8" t="n">
@@ -1848,19 +1848,19 @@
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="5" t="s">
+      <c r="D40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="6" t="n">
+      <c r="I40" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -1880,19 +1880,19 @@
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="D41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="6" t="n">
+      <c r="I41" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J41" s="1" t="s">

--- a/bioSample/bioSample_J.PLAGGENBERG_10.16.19.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_10.16.19.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/bioSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B0E12D-3E05-AE4F-A296-EF55A6DEFB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="10180" yWindow="460" windowWidth="28180" windowHeight="19820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,102 +27,82 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="20">
   <si>
-    <t xml:space="preserve">harvestDate</t>
+    <t>harvestDate</t>
   </si>
   <si>
-    <t xml:space="preserve">harvester</t>
+    <t>harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber</t>
+    <t>bioSampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">experimentDesign</t>
+    <t>experimentDesign</t>
   </si>
   <si>
-    <t xml:space="preserve">experimentObservations</t>
+    <t>experimentObservations</t>
   </si>
   <si>
-    <t xml:space="preserve">strain</t>
+    <t>strain</t>
   </si>
   <si>
-    <t xml:space="preserve">genotype</t>
+    <t>genotype</t>
   </si>
   <si>
-    <t xml:space="preserve">floodmedia</t>
+    <t>floodmedia</t>
   </si>
   <si>
-    <t xml:space="preserve">inductionDelay</t>
+    <t>inductionDelay</t>
   </si>
   <si>
-    <t xml:space="preserve">treatment</t>
+    <t>treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">timePoint</t>
+    <t>timePoint</t>
   </si>
   <si>
-    <t xml:space="preserve">replicate</t>
+    <t>replicate</t>
   </si>
   <si>
-    <t xml:space="preserve">10.16.19</t>
+    <t>10.16.19</t>
   </si>
   <si>
-    <t xml:space="preserve">J.PLAGGENBERG</t>
+    <t>J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">ZEV_induction</t>
+    <t>ZEV_induction</t>
   </si>
   <si>
-    <t xml:space="preserve">GCN4</t>
+    <t>GCN4</t>
   </si>
   <si>
-    <t xml:space="preserve">SCGal</t>
+    <t>SCGal</t>
   </si>
   <si>
-    <t xml:space="preserve">EtOH</t>
+    <t>TYE7</t>
   </si>
   <si>
-    <t xml:space="preserve">TYE7</t>
+    <t>Estradiol</t>
   </si>
   <si>
-    <t xml:space="preserve">Estradiol</t>
+    <t>mockEstradiol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -128,22 +113,19 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,7 +137,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -163,97 +145,351 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -305,14 +541,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -326,16 +562,16 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="7">
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="K2" s="8">
         <v>-1</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="8">
         <v>3</v>
       </c>
       <c r="M2" s="1"/>
@@ -353,14 +589,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>42</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -369,21 +605,21 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="7">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="K3" s="8">
         <v>-1</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="8">
         <v>3</v>
       </c>
       <c r="M3" s="1"/>
@@ -401,14 +637,14 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>43</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -422,16 +658,16 @@
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="7">
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="K4" s="8">
         <v>-1</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="8">
         <v>3</v>
       </c>
       <c r="M4" s="1"/>
@@ -449,14 +685,14 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -465,21 +701,21 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="8">
         <v>-1</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="8">
         <v>3</v>
       </c>
       <c r="M5" s="1"/>
@@ -497,14 +733,14 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -518,16 +754,16 @@
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="7">
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7">
         <v>10</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="8">
         <v>3</v>
       </c>
       <c r="M6" s="1"/>
@@ -545,14 +781,14 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>46</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -561,21 +797,21 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="7">
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="K7" s="7">
         <v>10</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="8">
         <v>3</v>
       </c>
       <c r="M7" s="1"/>
@@ -593,14 +829,14 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -614,16 +850,16 @@
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="7">
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7">
         <v>10</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="8">
         <v>3</v>
       </c>
       <c r="M8" s="1"/>
@@ -641,14 +877,14 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -657,21 +893,21 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="7">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="7" t="n">
+      <c r="K9" s="7">
         <v>10</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="8">
         <v>3</v>
       </c>
       <c r="M9" s="1"/>
@@ -689,14 +925,14 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>49</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -710,16 +946,16 @@
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="7">
         <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L10" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="K10" s="7">
+        <v>15</v>
+      </c>
+      <c r="L10" s="8">
         <v>3</v>
       </c>
       <c r="M10" s="1"/>
@@ -737,14 +973,14 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -753,21 +989,21 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="7">
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="L11" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="K11" s="8">
+        <v>15</v>
+      </c>
+      <c r="L11" s="8">
         <v>3</v>
       </c>
       <c r="M11" s="1"/>
@@ -785,14 +1021,14 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>51</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -806,16 +1042,16 @@
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="7">
         <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="L12" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="K12" s="8">
+        <v>15</v>
+      </c>
+      <c r="L12" s="8">
         <v>3</v>
       </c>
       <c r="M12" s="1"/>
@@ -833,14 +1069,14 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -849,21 +1085,21 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L13" s="8" t="n">
+      <c r="K13" s="7">
+        <v>15</v>
+      </c>
+      <c r="L13" s="8">
         <v>3</v>
       </c>
       <c r="M13" s="1"/>
@@ -881,14 +1117,14 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>53</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -902,16 +1138,16 @@
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="I14" s="7">
         <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="K14" s="7">
         <v>20</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="8">
         <v>3</v>
       </c>
       <c r="M14" s="1"/>
@@ -929,14 +1165,14 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="4">
         <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -945,21 +1181,21 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="7">
         <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7">
         <v>20</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="8">
         <v>3</v>
       </c>
       <c r="M15" s="1"/>
@@ -977,14 +1213,14 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>55</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -998,16 +1234,16 @@
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" s="7">
         <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="K16" s="7">
         <v>20</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="8">
         <v>3</v>
       </c>
       <c r="M16" s="1"/>
@@ -1025,14 +1261,14 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="4">
         <v>56</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1041,21 +1277,21 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="n">
+      <c r="K17" s="7">
         <v>20</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="8">
         <v>3</v>
       </c>
       <c r="M17" s="1"/>
@@ -1073,14 +1309,14 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="4">
         <v>57</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1094,16 +1330,16 @@
       <c r="H18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="I18" s="7">
         <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="K18" s="8">
         <v>90</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="8">
         <v>3</v>
       </c>
       <c r="M18" s="1"/>
@@ -1121,14 +1357,14 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="4">
         <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1137,21 +1373,21 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="7" t="n">
+      <c r="I19" s="7">
         <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="K19" s="8">
         <v>90</v>
       </c>
-      <c r="L19" s="8" t="n">
+      <c r="L19" s="8">
         <v>3</v>
       </c>
       <c r="M19" s="1"/>
@@ -1169,14 +1405,14 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="4">
         <v>59</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1190,16 +1426,16 @@
       <c r="H20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="7">
         <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="K20" s="8">
         <v>90</v>
       </c>
-      <c r="L20" s="8" t="n">
+      <c r="L20" s="8">
         <v>3</v>
       </c>
       <c r="M20" s="1"/>
@@ -1217,14 +1453,14 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="4">
         <v>60</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1233,21 +1469,21 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="7">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="8" t="n">
+      <c r="K21" s="8">
         <v>90</v>
       </c>
-      <c r="L21" s="8" t="n">
+      <c r="L21" s="8">
         <v>3</v>
       </c>
       <c r="M21" s="1"/>
@@ -1265,14 +1501,14 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="4">
         <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1284,634 +1520,629 @@
       <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="7" t="n">
+      <c r="I22" s="7">
         <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4">
+        <v>62</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="7">
+        <v>30</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="8">
         <v>-1</v>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="L23" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>62</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="6" t="s">
+    <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="7">
+        <v>30</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="K24" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4">
+        <v>64</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="8" t="n">
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="7">
+        <v>30</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="8">
         <v>-1</v>
       </c>
-      <c r="L23" s="1" t="n">
+      <c r="L25" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <v>63</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J24" s="1" t="s">
+    <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="4">
+        <v>65</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="7">
+        <v>30</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L24" s="1" t="n">
+      <c r="K26" s="7">
+        <v>10</v>
+      </c>
+      <c r="L26" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="6" t="s">
+    <row r="27" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="7">
+        <v>30</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7">
+        <v>10</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4">
+        <v>67</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="7">
+        <v>30</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="K28" s="7">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4">
+        <v>68</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="7">
+        <v>30</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="7">
+        <v>10</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4">
+        <v>69</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="7">
+        <v>30</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L25" s="1" t="n">
+      <c r="K30" s="7">
+        <v>15</v>
+      </c>
+      <c r="L30" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J26" s="1" t="s">
+    <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4">
+        <v>70</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="L26" s="1" t="n">
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="7">
+        <v>30</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="8">
+        <v>15</v>
+      </c>
+      <c r="L31" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>66</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="6" t="s">
+    <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="4">
+        <v>71</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="7">
+        <v>30</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="K32" s="8">
+        <v>15</v>
+      </c>
+      <c r="L32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4">
+        <v>72</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="L27" s="1" t="n">
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="7">
+        <v>30</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="7">
+        <v>15</v>
+      </c>
+      <c r="L33" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J28" s="1" t="s">
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4">
+        <v>73</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="7">
+        <v>30</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="L28" s="1" t="n">
+      <c r="K34" s="7">
+        <v>20</v>
+      </c>
+      <c r="L34" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="6" t="s">
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="4">
+        <v>74</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="7">
+        <v>30</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="7">
+        <v>20</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="4">
+        <v>75</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="7">
+        <v>30</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="K36" s="7">
+        <v>20</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="4">
+        <v>76</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="7">
+        <v>30</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="7">
+        <v>20</v>
+      </c>
+      <c r="L37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="4">
+        <v>77</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="7">
+        <v>30</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="L29" s="1" t="n">
+      <c r="K38" s="8">
+        <v>90</v>
+      </c>
+      <c r="L38" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J30" s="1" t="s">
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="4">
+        <v>78</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L30" s="1" t="n">
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="7">
+        <v>30</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="8">
+        <v>90</v>
+      </c>
+      <c r="L39" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="6" t="s">
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="4">
+        <v>79</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="7">
+        <v>30</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="K40" s="8">
+        <v>90</v>
+      </c>
+      <c r="L40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="4">
+        <v>80</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="L31" s="1" t="n">
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="7">
+        <v>30</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="8">
+        <v>90</v>
+      </c>
+      <c r="L41" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>71</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="L32" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="4" t="n">
-        <v>72</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="4" t="n">
-        <v>74</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="L36" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4" t="n">
-        <v>76</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>77</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="8" t="n">
-        <v>90</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="4" t="n">
-        <v>78</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>90</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="4" t="n">
-        <v>79</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>90</v>
-      </c>
-      <c r="L40" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>90</v>
-      </c>
-      <c r="L41" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>